--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 250/S&P500_returns_compared_annual.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 250/S&P500_returns_compared_annual.xlsx
@@ -501,13 +501,13 @@
         <v>0.04823062108356169</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05254558567884548</v>
+        <v>0.05417175391170213</v>
       </c>
       <c r="H2" t="n">
-        <v>8.946525046417969</v>
+        <v>12.31817607707594</v>
       </c>
       <c r="I2" t="n">
-        <v>-44.82251167134517</v>
+        <v>78.44121224245454</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.03835660347027155</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0633821966375655</v>
+        <v>0.0519525063640563</v>
       </c>
       <c r="H3" t="n">
-        <v>65.24454957720684</v>
+        <v>35.44605534304496</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.4527679884705402</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4345385909402978</v>
+        <v>-0.4517444449331822</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.026211656840334</v>
+        <v>0.2260635829877247</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.4788349786360374</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4598953482935023</v>
+        <v>-0.4897712536315187</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.955356477190676</v>
+        <v>-2.283934023916399</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2336316508151194</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2475634986920532</v>
+        <v>0.2473729118849761</v>
       </c>
       <c r="H6" t="n">
-        <v>5.963168016117192</v>
+        <v>5.881592250842161</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2205746116218639</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2340996692793129</v>
+        <v>0.2518448661356538</v>
       </c>
       <c r="H7" t="n">
-        <v>6.131738171496957</v>
+        <v>14.17672427658956</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1668064381739801</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1667656798671265</v>
+        <v>0.1696862882099202</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.02443449263696212</v>
+        <v>1.726462160253311</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1720113297547816</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1735553932159504</v>
+        <v>0.1883902273512932</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8976521856845233</v>
+        <v>9.521987662011153</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.00473948184538576</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.002259089376658288</v>
+        <v>-0.007279765663977249</v>
       </c>
       <c r="H10" t="n">
-        <v>-52.33467601827232</v>
+        <v>-53.59834474447128</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0146552956725634</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.005090295169143182</v>
+        <v>-0.006520626760523006</v>
       </c>
       <c r="H11" t="n">
-        <v>-65.26651332819665</v>
+        <v>55.50668573183098</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1367222749794492</v>
       </c>
       <c r="G12" t="n">
-        <v>0.136807634413931</v>
+        <v>0.1377384419140005</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06243271953648309</v>
+        <v>0.7432343666780347</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.1246375821478671</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1311563194839849</v>
+        <v>0.1541518818122233</v>
       </c>
       <c r="H13" t="n">
-        <v>5.230153877972472</v>
+        <v>23.68009644903183</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2473334756068372</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2503973580315511</v>
+        <v>0.2461735708534665</v>
       </c>
       <c r="H14" t="n">
-        <v>1.238765766419863</v>
+        <v>-0.4689639162369109</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2526770099516101</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2652184005125692</v>
+        <v>0.2792162771924935</v>
       </c>
       <c r="H15" t="n">
-        <v>4.963407855491439</v>
+        <v>10.50323780781081</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1534692709482307</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1373034566803273</v>
+        <v>0.1474991539081654</v>
       </c>
       <c r="H16" t="n">
-        <v>-10.53358380346809</v>
+        <v>-3.8901058193462</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1510151984036966</v>
       </c>
       <c r="G17" t="n">
-        <v>0.147629256031623</v>
+        <v>0.1528935558397485</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.242120268598551</v>
+        <v>1.243820129302916</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.01637490625494815</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.009018795943237602</v>
+        <v>-0.001353104519718451</v>
       </c>
       <c r="H18" t="n">
-        <v>-44.92306824344529</v>
+        <v>91.73671898543192</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.0008420639130941139</v>
       </c>
       <c r="G19" t="n">
-        <v>0.009257228071159003</v>
+        <v>0.01564891035203835</v>
       </c>
       <c r="H19" t="n">
-        <v>-1199.349815044783</v>
+        <v>1958.399357661268</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1386621728908525</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1406235740897115</v>
+        <v>0.1413918696531002</v>
       </c>
       <c r="H20" t="n">
-        <v>1.41451785874068</v>
+        <v>1.968595115263597</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1430944751915809</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1455369436855127</v>
+        <v>0.1499710697370854</v>
       </c>
       <c r="H21" t="n">
-        <v>1.706892240711415</v>
+        <v>4.805632458065094</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.186217385980056</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1710241741019643</v>
+        <v>0.1705316569369286</v>
       </c>
       <c r="H22" t="n">
-        <v>-8.158857884364727</v>
+        <v>-8.423342944362536</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.179460504226912</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1828785234884641</v>
+        <v>0.1751292009439314</v>
       </c>
       <c r="H23" t="n">
-        <v>1.904608078683595</v>
+        <v>-2.413513380918661</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0943972626856821</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.09377245958830716</v>
+        <v>-0.1034169578173869</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.6618868806136652</v>
+        <v>-9.555038859270731</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.09960845456872909</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1060528359757409</v>
+        <v>-0.09315563904901467</v>
       </c>
       <c r="H25" t="n">
-        <v>6.469713273751514</v>
+        <v>6.478180539646894</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2301404426212312</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2405094874518295</v>
+        <v>0.2334610855550723</v>
       </c>
       <c r="H26" t="n">
-        <v>4.505529194477063</v>
+        <v>1.442876747789291</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2325722382365865</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2311797689160294</v>
+        <v>0.244205358874622</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.5987255104543409</v>
+        <v>5.001938634740059</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.05880326267593137</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06956265436014723</v>
+        <v>0.07094041742945521</v>
       </c>
       <c r="H28" t="n">
-        <v>18.29726990407246</v>
+        <v>20.64027436778891</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.07058452141033789</v>
       </c>
       <c r="G29" t="n">
-        <v>0.07345589906681842</v>
+        <v>0.08155298626622888</v>
       </c>
       <c r="H29" t="n">
-        <v>4.06799904441937</v>
+        <v>15.53947612979712</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 250/S&P500_returns_compared_annual.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 250/S&P500_returns_compared_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.04823062108356169</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05417175391170213</v>
+        <v>0.03450967310052189</v>
       </c>
       <c r="H2" t="n">
-        <v>12.31817607707594</v>
+        <v>-28.44862387168444</v>
       </c>
       <c r="I2" t="n">
-        <v>78.44121224245454</v>
+        <v>-6.456230894862872</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.03835660347027155</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0519525063640563</v>
+        <v>0.07311028662734251</v>
       </c>
       <c r="H3" t="n">
-        <v>35.44605534304496</v>
+        <v>90.60677957058152</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.4527679884705402</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4517444449331822</v>
+        <v>-0.4581568129553796</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2260635829877247</v>
+        <v>-1.190195557562046</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.4788349786360374</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4897712536315187</v>
+        <v>-0.4775550146198702</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.283934023916399</v>
+        <v>0.2673079606283529</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2336316508151194</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2473729118849761</v>
+        <v>0.2425007526691413</v>
       </c>
       <c r="H6" t="n">
-        <v>5.881592250842161</v>
+        <v>3.796190209279614</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2205746116218639</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2518448661356538</v>
+        <v>0.2606344402471674</v>
       </c>
       <c r="H7" t="n">
-        <v>14.17672427658956</v>
+        <v>18.16157731424639</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1668064381739801</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1696862882099202</v>
+        <v>0.1749159838609683</v>
       </c>
       <c r="H8" t="n">
-        <v>1.726462160253311</v>
+        <v>4.861650291057639</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1720113297547816</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1883902273512932</v>
+        <v>0.1829404537962488</v>
       </c>
       <c r="H9" t="n">
-        <v>9.521987662011153</v>
+        <v>6.353723360576133</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.00473948184538576</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.007279765663977249</v>
+        <v>0.001329654385659033</v>
       </c>
       <c r="H10" t="n">
-        <v>-53.59834474447128</v>
+        <v>128.0548471127398</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0146552956725634</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.006520626760523006</v>
+        <v>-0.006983671245107423</v>
       </c>
       <c r="H11" t="n">
-        <v>55.50668573183098</v>
+        <v>52.34711464619745</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1367222749794492</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1377384419140005</v>
+        <v>0.1411267040514195</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7432343666780347</v>
+        <v>3.221442206569733</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.1246375821478671</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1541518818122233</v>
+        <v>0.1454835728198987</v>
       </c>
       <c r="H13" t="n">
-        <v>23.68009644903183</v>
+        <v>16.72528487218278</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2473334756068372</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2461735708534665</v>
+        <v>0.2479150954184758</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.4689639162369109</v>
+        <v>0.2351561228061054</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2526770099516101</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2792162771924935</v>
+        <v>0.2837717086627556</v>
       </c>
       <c r="H15" t="n">
-        <v>10.50323780781081</v>
+        <v>12.30610521990126</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1534692709482307</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1474991539081654</v>
+        <v>0.1408884687932925</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.8901058193462</v>
+        <v>-8.197603388095878</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1510151984036966</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1528935558397485</v>
+        <v>0.1494891009112725</v>
       </c>
       <c r="H17" t="n">
-        <v>1.243820129302916</v>
+        <v>-1.010558876560566</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.01637490625494815</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.001353104519718451</v>
+        <v>-0.006978066114247465</v>
       </c>
       <c r="H18" t="n">
-        <v>91.73671898543192</v>
+        <v>57.38561182822748</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.0008420639130941139</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01564891035203835</v>
+        <v>-0.005810534058465204</v>
       </c>
       <c r="H19" t="n">
-        <v>1958.399357661268</v>
+        <v>-590.0348023601607</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1386621728908525</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1413918696531002</v>
+        <v>0.1563221401465244</v>
       </c>
       <c r="H20" t="n">
-        <v>1.968595115263597</v>
+        <v>12.73596604430315</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1430944751915809</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1499710697370854</v>
+        <v>0.153805333467513</v>
       </c>
       <c r="H21" t="n">
-        <v>4.805632458065094</v>
+        <v>7.485165490555771</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.186217385980056</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1705316569369286</v>
+        <v>0.1617251866545235</v>
       </c>
       <c r="H22" t="n">
-        <v>-8.423342944362536</v>
+        <v>-13.15247724944201</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.179460504226912</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1751292009439314</v>
+        <v>0.1834738024685935</v>
       </c>
       <c r="H23" t="n">
-        <v>-2.413513380918661</v>
+        <v>2.236312808197071</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0943972626856821</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1034169578173869</v>
+        <v>-0.09441158352107258</v>
       </c>
       <c r="H24" t="n">
-        <v>-9.555038859270731</v>
+        <v>-0.01517081638072687</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.09960845456872909</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.09315563904901467</v>
+        <v>-0.09755625501297517</v>
       </c>
       <c r="H25" t="n">
-        <v>6.478180539646894</v>
+        <v>2.060266434851589</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2301404426212312</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2334610855550723</v>
+        <v>0.2425429330773323</v>
       </c>
       <c r="H26" t="n">
-        <v>1.442876747789291</v>
+        <v>5.389096464246097</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2325722382365865</v>
       </c>
       <c r="G27" t="n">
-        <v>0.244205358874622</v>
+        <v>0.250806497049778</v>
       </c>
       <c r="H27" t="n">
-        <v>5.001938634740059</v>
+        <v>7.840255978721975</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.05880326267593137</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07094041742945521</v>
+        <v>0.0629907097711471</v>
       </c>
       <c r="H28" t="n">
-        <v>20.64027436778891</v>
+        <v>7.121113531221939</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,14 +1394,14 @@
         <v>0.07058452141033789</v>
       </c>
       <c r="G29" t="n">
-        <v>0.08155298626622888</v>
+        <v>0.08617240683388304</v>
       </c>
       <c r="H29" t="n">
-        <v>15.53947612979712</v>
+        <v>22.08399959663414</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>